--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gnai2-Cxcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gnai2-Cxcr2.xlsx
@@ -534,28 +534,28 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>184.0626906666667</v>
+        <v>63.91118233333333</v>
       </c>
       <c r="H2">
-        <v>552.188072</v>
+        <v>191.733547</v>
       </c>
       <c r="I2">
-        <v>0.6510505751503485</v>
+        <v>0.4067926910433548</v>
       </c>
       <c r="J2">
-        <v>0.6510505751503486</v>
+        <v>0.4067926910433549</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>113.4026386666667</v>
+        <v>0.03970866666666666</v>
       </c>
       <c r="N2">
-        <v>340.207916</v>
+        <v>0.119126</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>20873.19480168644</v>
+        <v>2.537827835546889</v>
       </c>
       <c r="R2">
-        <v>187858.753215178</v>
+        <v>22.840450519922</v>
       </c>
       <c r="S2">
-        <v>0.6510505751503485</v>
+        <v>0.4067926910433548</v>
       </c>
       <c r="T2">
-        <v>0.6510505751503486</v>
+        <v>0.4067926910433549</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,22 +602,22 @@
         <v>172.3302</v>
       </c>
       <c r="I3">
-        <v>0.2031838091312023</v>
+        <v>0.3656254573230189</v>
       </c>
       <c r="J3">
-        <v>0.2031838091312023</v>
+        <v>0.365625457323019</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>113.4026386666667</v>
+        <v>0.03970866666666666</v>
       </c>
       <c r="N3">
-        <v>340.207916</v>
+        <v>0.119126</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>6514.233133984801</v>
+        <v>2.2810008228</v>
       </c>
       <c r="R3">
-        <v>58628.09820586321</v>
+        <v>20.5290074052</v>
       </c>
       <c r="S3">
-        <v>0.2031838091312023</v>
+        <v>0.3656254573230189</v>
       </c>
       <c r="T3">
-        <v>0.2031838091312023</v>
+        <v>0.365625457323019</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,28 +658,28 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>41.21033366666667</v>
+        <v>35.755375</v>
       </c>
       <c r="H4">
-        <v>123.631001</v>
+        <v>107.266125</v>
       </c>
       <c r="I4">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336261</v>
       </c>
       <c r="J4">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336262</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>113.4026386666667</v>
+        <v>0.03970866666666666</v>
       </c>
       <c r="N4">
-        <v>340.207916</v>
+        <v>0.119126</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>4673.360578133769</v>
+        <v>1.419798267416666</v>
       </c>
       <c r="R4">
-        <v>42060.24520320392</v>
+        <v>12.77818440675</v>
       </c>
       <c r="S4">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336261</v>
       </c>
       <c r="T4">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336262</v>
       </c>
     </row>
   </sheetData>
